--- a/Punto2/Tablas resumen resultados.xlsx
+++ b/Punto2/Tablas resumen resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\Semestre 08\Bases de Datos II\Proyectos\BD2-T4\Punto2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4279D044-249F-49C7-80D7-B3C194F8378D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE25873-DEF5-4998-866A-EF56FD5BB5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
-  <si>
-    <t>Consulta 1</t>
-  </si>
   <si>
     <t>Volumen de datos</t>
   </si>
@@ -48,7 +45,10 @@
     <t>CPU</t>
   </si>
   <si>
-    <t>Consulta 2</t>
+    <t>Consulta A</t>
+  </si>
+  <si>
+    <t>Consulta B</t>
   </si>
 </sst>
 </file>
@@ -320,64 +320,64 @@
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -663,219 +663,219 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="20"/>
+    <col min="1" max="1" width="3.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="15"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="11">
+      <c r="A3" s="15"/>
+      <c r="B3" s="5">
         <v>10000</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="6">
         <v>14</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="7">
         <v>1</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="8">
         <v>0.03</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="11">
+      <c r="A4" s="15"/>
+      <c r="B4" s="5">
         <v>100000</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="6">
         <v>112</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="7">
         <v>2</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="8">
         <v>0.17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="11">
+      <c r="A5" s="15"/>
+      <c r="B5" s="5">
         <v>500000</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="6">
         <v>545</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="7">
         <v>7</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="8">
         <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="11">
+      <c r="A6" s="15"/>
+      <c r="B6" s="5">
         <v>1000000</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="6">
         <v>1088</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="7">
         <v>14</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="8">
         <v>1.31</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16">
+      <c r="A7" s="16"/>
+      <c r="B7" s="9">
         <v>2000000</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="10">
         <v>2171</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="11">
         <v>27</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="12">
         <v>3.14</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="20"/>
+      <c r="E9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="11">
+      <c r="A11" s="15"/>
+      <c r="B11" s="5">
         <v>10000</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="6">
         <v>14</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="7">
         <v>1</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="8">
         <v>0.54</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="11">
+      <c r="A12" s="15"/>
+      <c r="B12" s="5">
         <v>100000</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="6">
         <v>112</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="7">
         <v>2</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="8">
         <v>7.43</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="11">
+      <c r="A13" s="15"/>
+      <c r="B13" s="5">
         <v>500000</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="6">
         <v>545</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="7">
         <v>7</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="8">
         <v>27.12</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="11">
+      <c r="A14" s="15"/>
+      <c r="B14" s="5">
         <v>1000000</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="6">
         <v>1088</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="7">
         <v>14</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="8">
         <v>60.25</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16">
+      <c r="A15" s="16"/>
+      <c r="B15" s="9">
         <v>2000000</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="10">
         <v>2171</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="11">
         <v>27</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="12">
         <v>118.82</v>
       </c>
     </row>
